--- a/src/main/resources/demo/syracuse/rules/[TD] syracuse.drl.xlsx
+++ b/src/main/resources/demo/syracuse/rules/[TD] syracuse.drl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlvassent\travail\Docker\Suite_Syracuse\src\main\resources\demo\syracuse\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05038881-BCC8-402C-BF15-4CEC72D4276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52093524-9D42-4C61-A480-0AFF554CF352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>RuleSet</t>
   </si>
@@ -90,39 +90,18 @@
     <t>1</t>
   </si>
   <si>
-    <t>Util.debug(e);</t>
-  </si>
-  <si>
-    <t>Calcul élément suivant</t>
-  </si>
-  <si>
     <t>3 * $va + 1</t>
   </si>
   <si>
     <t>$va / 2</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Element e = new Element($in + 1, $param);</t>
-  </si>
-  <si>
     <t>Element() from suite</t>
   </si>
   <si>
     <t>$in : index, $va : valeur, valeur != 1, valeur % 2 == $param</t>
   </si>
   <si>
-    <t>suite.add(e);</t>
-  </si>
-  <si>
-    <t>Ajout élément suivant</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -132,9 +111,6 @@
     <t>PRIORITY</t>
   </si>
   <si>
-    <t>Reste de la division</t>
-  </si>
-  <si>
     <t>PAIR</t>
   </si>
   <si>
@@ -144,16 +120,25 @@
     <t>demo.syracuse.rules</t>
   </si>
   <si>
-    <t>demo.syracuse.mdl.Element,demo.syracuse.mdl.Util</t>
-  </si>
-  <si>
-    <t>Regle de calcul Un PAIR</t>
-  </si>
-  <si>
-    <t>Regle de calcul Un IMPAIR</t>
-  </si>
-  <si>
     <t>Nom de règle</t>
+  </si>
+  <si>
+    <t>Calcul pour Un PAIR</t>
+  </si>
+  <si>
+    <t>Calcul pour Un IMPAIR</t>
+  </si>
+  <si>
+    <t>demo.syracuse.mdl.Element</t>
+  </si>
+  <si>
+    <t>Parité Un</t>
+  </si>
+  <si>
+    <t>Calcul Un+1</t>
+  </si>
+  <si>
+    <t>suite.add(new Element($in + 1, $param));</t>
   </si>
 </sst>
 </file>
@@ -749,34 +734,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="9" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="12.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -785,40 +768,38 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="27.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:5" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>2</v>
@@ -827,42 +808,28 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="13.2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="2:7" s="12" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:5" s="12" customFormat="1" ht="47.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
@@ -870,56 +837,38 @@
         <v>33</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
